--- a/biology/Botanique/Poa_bulbosa/Poa_bulbosa.xlsx
+++ b/biology/Botanique/Poa_bulbosa/Poa_bulbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa bulbosa, le pâturin bulbeux, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des régions tempérées de l'Ancien Monde.
 Ce sont des plantes herbacées, vivaces, très cespiteuses, aux tiges pouvant atteindre de 10 à 40 cm de haut. L'espèce doit son nom à la base des tiges renflées en forme de bulbes. Il en existe une forme (variété Poa bulbosa var. vivipara Koeler) dans laquelle certains épillets, voire tous, se transforment, par un phénomène de prolifération, en bulbilles permettant une propagation végétative. 
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (25 septembre 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (25 septembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Poa bulbosa proles bulbosa
 Poa bulbosa proles pseudoconcinna (Schur) Asch. &amp; Graebn.
 Poa bulbosa subsp. badensis (Haenke ex Willd.) Beck
